--- a/applications.xlsx
+++ b/applications.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,89 +440,78 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Job_Title</t>
+          <t>title</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Applicant_Name</t>
+          <t>applicant_name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>email</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>full stack developer</t>
+          <t>fhddjfdbjh2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>john</t>
+          <t>frfrds</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>john889@gmail.com</t>
+          <t>asd@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8712376529</t>
-        </is>
+          <t>3224</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>46050.8121114012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>intern</t>
+          <t>djbjbdjb</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>alexa</t>
+          <t>Dashmeet Singh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>alexa234@gmail.com</t>
+          <t>dashmeer@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8787878787</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>intern</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>dashmeet</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>dashmeet123@gmail.com</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9999090909</t>
-        </is>
+          <t>3443332</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>46050.8127322369</v>
       </c>
     </row>
   </sheetData>
